--- a/Documentación/Factibilidad económica/Factibilidad económica.xlsx
+++ b/Documentación/Factibilidad económica/Factibilidad económica.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Repos\Wet-DryPenguins\Diagramas y Gráficos\Factibilidad económica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Repos\Wet-DryPenguins\Documentación\Factibilidad económica\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -845,24 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,18 +879,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
@@ -919,6 +889,39 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -1205,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,25 +1229,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="E1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="K1" s="36" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
+      <c r="K1" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
       <c r="R1" t="s">
         <v>78</v>
       </c>
@@ -1253,41 +1256,41 @@
       <c r="A2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="39" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="39" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="39" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="5" t="s">
@@ -1790,11 +1793,11 @@
         <v>0.72077143346631101</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>0.72077143346631101</v>
+        <v>1.441542866932622</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>28</v>
@@ -1975,7 +1978,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="19">
         <f>SUM(I3:I17)</f>
-        <v>12.22253596710639</v>
+        <v>12.943307400572701</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>44</v>
@@ -2003,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2022,12 +2025,12 @@
       <c r="A1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2036,16 +2039,16 @@
       <c r="B2">
         <v>700</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="66">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="56">
         <v>2</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="67">
         <v>3</v>
       </c>
     </row>
@@ -2056,7 +2059,7 @@
       <c r="B3" s="16">
         <v>50</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="60" t="s">
         <v>85</v>
       </c>
       <c r="E3" s="4">
@@ -2067,24 +2070,24 @@
         <f>$B$2</f>
         <v>700</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="58">
         <f>$B$2</f>
         <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="64">
         <f>E3*$B$3</f>
         <v>26250</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="64">
         <f t="shared" ref="F4:G4" si="0">F3*$B$3</f>
         <v>35000</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="65">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
@@ -2094,12 +2097,12 @@
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
+      <c r="D6" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2108,16 +2111,16 @@
       <c r="B7">
         <v>14</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="66">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="56">
         <v>2</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="67">
         <v>3</v>
       </c>
     </row>
@@ -2128,7 +2131,7 @@
       <c r="B8" s="16">
         <v>80</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="60" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="4">
@@ -2139,45 +2142,45 @@
         <f>$B$7</f>
         <v>14</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="58">
         <f>$B$7</f>
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="34"/>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="64">
         <f>E8*$B$8</f>
         <v>800</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="64">
         <f t="shared" ref="F9:G9" si="1">F8*$B$8</f>
         <v>1120</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="65">
         <f t="shared" si="1"/>
         <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="72"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="73"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="47"/>
+      <c r="B13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="59"/>
+      <c r="B15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2213,7 +2216,7 @@
       <c r="E1" s="23">
         <v>0</v>
       </c>
-      <c r="F1" s="42">
+      <c r="F1" s="36">
         <v>1</v>
       </c>
       <c r="G1" s="23">
@@ -2222,8 +2225,8 @@
       <c r="H1" s="35">
         <v>3</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2235,21 +2238,21 @@
       <c r="D2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="42">
         <f>-Costos!C13</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="43">
         <v>0</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="42">
         <v>0</v>
       </c>
-      <c r="H2" s="60">
+      <c r="H2" s="54">
         <v>0</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2261,18 +2264,18 @@
       <c r="D3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="44">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>Ingresos!E4+Ingresos!E9</f>
         <v>27050</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="44">
         <f>Ingresos!F4+Ingresos!F9</f>
         <v>36120</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="51">
         <f>Ingresos!G4+Ingresos!G9</f>
         <v>36120</v>
       </c>
@@ -2283,21 +2286,21 @@
       <c r="D4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="44">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <f>-Ingresos!E3*Costos!$I$18 - Ingresos!E8*Costos!$O$18</f>
-        <v>-6539.0567424019191</v>
-      </c>
-      <c r="G4" s="50">
+        <v>-6917.4617449717325</v>
+      </c>
+      <c r="G4" s="44">
         <f>-Ingresos!F3*Costos!$I$18 - Ingresos!F8*Costos!$O$18</f>
-        <v>-8726.8906805139632</v>
-      </c>
-      <c r="H4" s="57">
+        <v>-9231.4306839403798</v>
+      </c>
+      <c r="H4" s="51">
         <f>-Ingresos!G3*Costos!$I$18 - Ingresos!G8*Costos!$O$18</f>
-        <v>-8726.8906805139632</v>
+        <v>-9231.4306839403798</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2306,28 +2309,28 @@
       <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="41">
         <f>SUM(E9:H9)</f>
-        <v>11057.442994955107</v>
+        <v>10313.153424486163</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="44">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>F3+F4</f>
-        <v>20510.943257598083</v>
-      </c>
-      <c r="G5" s="50">
+        <v>20132.538255028267</v>
+      </c>
+      <c r="G5" s="44">
         <f t="shared" ref="G5:H5" si="0">G3+G4</f>
-        <v>27393.109319486037</v>
-      </c>
-      <c r="H5" s="57">
+        <v>26888.56931605962</v>
+      </c>
+      <c r="H5" s="51">
         <f t="shared" si="0"/>
-        <v>27393.109319486037</v>
+        <v>26888.56931605962</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -2336,27 +2339,27 @@
       <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="53">
         <f>IRR(E8:H8)</f>
-        <v>0.42958408895653122</v>
+        <v>0.41542743559083228</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="44">
         <v>0</v>
       </c>
       <c r="F6" s="3">
         <f>-$B$2*F5</f>
-        <v>-4307.298084095597</v>
-      </c>
-      <c r="G6" s="50">
+        <v>-4227.8330335559358</v>
+      </c>
+      <c r="G6" s="44">
         <f>-$B$2*G5</f>
-        <v>-5752.5529570920671</v>
-      </c>
-      <c r="H6" s="57">
+        <v>-5646.5995563725201</v>
+      </c>
+      <c r="H6" s="51">
         <f>-$B$2*H5</f>
-        <v>-5752.5529570920671</v>
+        <v>-5646.5995563725201</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2365,73 +2368,73 @@
       <c r="A7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="53">
         <f>MIRR(E8:H8,B3,B3)</f>
-        <v>0.3041083591387852</v>
+        <v>0.29604808311628417</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="45">
         <v>0</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="46">
         <f>F5+F6</f>
-        <v>16203.645173502486</v>
-      </c>
-      <c r="G7" s="51">
+        <v>15904.70522147233</v>
+      </c>
+      <c r="G7" s="45">
         <f t="shared" ref="G7:H7" si="1">G5+G6</f>
-        <v>21640.556362393971</v>
-      </c>
-      <c r="H7" s="61">
+        <v>21241.969759687101</v>
+      </c>
+      <c r="H7" s="55">
         <f t="shared" si="1"/>
-        <v>21640.556362393971</v>
+        <v>21241.969759687101</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="50">
         <f>E2</f>
         <v>-29330.320372727783</v>
       </c>
       <c r="F8" s="3">
         <f>F7</f>
-        <v>16203.645173502486</v>
-      </c>
-      <c r="G8" s="56">
+        <v>15904.70522147233</v>
+      </c>
+      <c r="G8" s="50">
         <f>G7</f>
-        <v>21640.556362393971</v>
-      </c>
-      <c r="H8" s="57">
+        <v>21241.969759687101</v>
+      </c>
+      <c r="H8" s="51">
         <f>H7</f>
-        <v>21640.556362393971</v>
+        <v>21241.969759687101</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="52">
         <f>E8/(1+$B$2)^E1</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="48">
         <f>F8/(1+$B$2)^F1</f>
-        <v>13391.442292150816</v>
-      </c>
-      <c r="G9" s="58">
+        <v>13144.384480555645</v>
+      </c>
+      <c r="G9" s="52">
         <f>G8/(1+$B$2)^G1</f>
-        <v>14780.791177101271</v>
-      </c>
-      <c r="H9" s="55">
+        <v>14508.551164324228</v>
+      </c>
+      <c r="H9" s="49">
         <f>H8/(1+$B$2)^H1</f>
-        <v>12215.529898430803</v>
+        <v>11990.538152334073</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>

--- a/Documentación/Factibilidad económica/Factibilidad económica.xlsx
+++ b/Documentación/Factibilidad económica/Factibilidad económica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
   <si>
     <t>Placa desarrollo MSP</t>
   </si>
@@ -151,12 +151,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Costo</t>
-  </si>
-  <si>
-    <t>Precio Unitario</t>
-  </si>
-  <si>
     <t>Total desarrollo</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>Costos Base</t>
   </si>
   <si>
-    <t>ESTADO DE RESULTADOS</t>
-  </si>
-  <si>
     <t>Ventas</t>
   </si>
   <si>
@@ -265,9 +256,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>TREMA</t>
-  </si>
-  <si>
     <t>VAN</t>
   </si>
   <si>
@@ -280,26 +268,143 @@
     <t>TIRM</t>
   </si>
   <si>
-    <t>Período</t>
-  </si>
-  <si>
     <t>Cantidad de ventas</t>
   </si>
   <si>
-    <t>Ingresos</t>
+    <t>ESP32 NodeMCU</t>
+  </si>
+  <si>
+    <t>Transistor MOS</t>
+  </si>
+  <si>
+    <t>BS170-ND</t>
+  </si>
+  <si>
+    <t>Capacitor Elec 10uF x 16V</t>
+  </si>
+  <si>
+    <t>ECA-1CM100I</t>
+  </si>
+  <si>
+    <t>RES220</t>
+  </si>
+  <si>
+    <t>CF14JT220R</t>
+  </si>
+  <si>
+    <t>RES10K</t>
+  </si>
+  <si>
+    <t>CF14JT10K</t>
+  </si>
+  <si>
+    <t>RES820K</t>
+  </si>
+  <si>
+    <t>CF14JT820K</t>
+  </si>
+  <si>
+    <t>LED RGB 5mm</t>
+  </si>
+  <si>
+    <t>HV-5RGB25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Terminal Hembra Molex 4 pines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Terminal Macho Molex 4 pines</t>
+  </si>
+  <si>
+    <t>Tira de 19 pines Hembra</t>
+  </si>
+  <si>
+    <t>PH1-20-UA</t>
+  </si>
+  <si>
+    <t>Cable plano 4 vías</t>
+  </si>
+  <si>
+    <t>Dupont 1.27mm</t>
+  </si>
+  <si>
+    <t>Resorte Ø4.2mm 22mm largo</t>
+  </si>
+  <si>
+    <t>Ø4.2mm 22mm</t>
+  </si>
+  <si>
+    <t>Cable USB C a USB A</t>
+  </si>
+  <si>
+    <t>USBC-USBA-1M</t>
+  </si>
+  <si>
+    <t>Tornillo M3 Allen X20mm</t>
+  </si>
+  <si>
+    <t>Allen-M3-20mm</t>
+  </si>
+  <si>
+    <t>Arandela 1/8''</t>
+  </si>
+  <si>
+    <t>Tuerca M3 Hexagonal</t>
+  </si>
+  <si>
+    <t>Tuerca M3 Hex</t>
+  </si>
+  <si>
+    <t>Carcaza impresa 3D</t>
+  </si>
+  <si>
+    <t>PLA-GST-WH-1.75MM</t>
+  </si>
+  <si>
+    <t>Total base</t>
+  </si>
+  <si>
+    <t>Mano de obra</t>
+  </si>
+  <si>
+    <t>2 hs/unidad</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Período (año)</t>
+  </si>
+  <si>
+    <t>Impuesto a las ganancias</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ingresos (USD)</t>
+  </si>
+  <si>
+    <t>Costo Unitario</t>
+  </si>
+  <si>
+    <t>Costo (USD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$USD]\ * #,##0.00_-;\-[$USD]\ * #,##0.00_-;_-[$USD]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +454,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -363,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -614,17 +733,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -684,63 +792,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -791,6 +875,32 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -804,14 +914,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -820,11 +929,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -834,45 +941,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -880,21 +966,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,15 +1006,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -1206,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,75 +1355,76 @@
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="11" max="11" width="27.5546875" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="E1" s="68" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="E1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
-      <c r="K1" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="K1" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="55"/>
       <c r="R1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="37" t="s">
+      <c r="M2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="34" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="5" t="s">
@@ -1299,12 +1433,12 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="15">
+        <v>63</v>
+      </c>
+      <c r="C3" s="85">
         <f>43.49</f>
         <v>43.49</v>
       </c>
@@ -1315,33 +1449,34 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="66">
         <v>2.0541999999999998</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="83">
         <f t="shared" ref="I3:I17" si="0">H3*G3</f>
         <v>2.0541999999999998</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="3">
-        <v>2.0541999999999998</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="L3" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="79">
+        <f>13500/Q15</f>
+        <v>16.520228101519862</v>
+      </c>
+      <c r="N3" s="44">
         <v>1</v>
       </c>
-      <c r="O3" s="6">
-        <f t="shared" ref="O3:O17" si="1">N3*M3</f>
-        <v>2.0541999999999998</v>
-      </c>
-      <c r="Q3" s="16">
+      <c r="O3" s="81">
+        <f>N3*M3</f>
+        <v>16.520228101519862</v>
+      </c>
+      <c r="Q3" s="14">
         <v>255.81200000000001</v>
       </c>
     </row>
@@ -1350,9 +1485,9 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="15">
+        <v>64</v>
+      </c>
+      <c r="C4" s="85">
         <f>19.94</f>
         <v>19.940000000000001</v>
       </c>
@@ -1363,31 +1498,32 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="66">
         <v>0.13289999999999999</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="83">
         <f t="shared" si="0"/>
         <v>0.26579999999999998</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.13289999999999999</v>
-      </c>
-      <c r="N4" s="4">
+        <v>82</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="79">
+        <f>0.41</f>
+        <v>0.41</v>
+      </c>
+      <c r="N4" s="44">
         <v>2</v>
       </c>
-      <c r="O4" s="6">
-        <f t="shared" si="1"/>
-        <v>0.26579999999999998</v>
+      <c r="O4" s="81">
+        <f t="shared" ref="O4:O21" si="1">N4*M4</f>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1395,9 +1531,9 @@
         <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15">
+        <v>65</v>
+      </c>
+      <c r="C5" s="85">
         <f>1250/Q6</f>
         <v>4.566443580676272</v>
       </c>
@@ -1408,31 +1544,32 @@
       <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="66">
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="83">
         <f t="shared" si="0"/>
         <v>0.1668</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3">
-        <v>5.5599999999999997E-2</v>
-      </c>
-      <c r="N5" s="4">
-        <v>3</v>
-      </c>
-      <c r="O5" s="6">
+        <v>84</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="79">
+        <f>0.21</f>
+        <v>0.21</v>
+      </c>
+      <c r="N5" s="44">
+        <v>1</v>
+      </c>
+      <c r="O5" s="81">
         <f t="shared" si="1"/>
-        <v>0.1668</v>
+        <v>0.21</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>37</v>
@@ -1443,9 +1580,9 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="15">
+        <v>66</v>
+      </c>
+      <c r="C6" s="85">
         <f>13700/Q9</f>
         <v>39.42729692783653</v>
       </c>
@@ -1456,44 +1593,45 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="66">
         <v>6.3E-2</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="83">
         <f t="shared" si="0"/>
         <v>6.3E-2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="3">
-        <v>6.3E-2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6">
+        <v>86</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="79">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="N6" s="44">
+        <v>3</v>
+      </c>
+      <c r="O6" s="81">
         <f t="shared" si="1"/>
-        <v>6.3E-2</v>
-      </c>
-      <c r="Q6" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="Q6" s="16">
         <v>273.73599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="15">
+        <v>68</v>
+      </c>
+      <c r="C7" s="85">
         <f>104.54</f>
         <v>104.54</v>
       </c>
@@ -1504,31 +1642,32 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="66">
         <v>1.95E-2</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="83">
         <f t="shared" si="0"/>
         <v>1.95E-2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1.95E-2</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
+        <v>88</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="79">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="N7" s="44">
+        <v>2</v>
+      </c>
+      <c r="O7" s="81">
         <f t="shared" si="1"/>
-        <v>1.95E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1536,9 +1675,9 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="15">
+        <v>69</v>
+      </c>
+      <c r="C8" s="85">
         <f>19800/Q12</f>
         <v>57.096224440067708</v>
       </c>
@@ -1546,36 +1685,36 @@
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="66">
         <f>0.0471</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="83">
         <f t="shared" si="0"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="3">
-        <f>0.0471</f>
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
+        <v>90</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="79">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="44">
+        <v>2</v>
+      </c>
+      <c r="O8" s="81">
         <f t="shared" si="1"/>
-        <v>4.7100000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>39</v>
@@ -1586,9 +1725,9 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="15">
+        <v>70</v>
+      </c>
+      <c r="C9" s="85">
         <f>17290/Q12</f>
         <v>49.858268715594477</v>
       </c>
@@ -1596,49 +1735,49 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="66">
         <f>0.0073</f>
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="83">
         <f t="shared" si="0"/>
         <v>1.46E-2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="3">
-        <f>0.0073</f>
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="N9" s="7">
-        <v>2</v>
-      </c>
-      <c r="O9" s="6">
+        <v>92</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="79">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="44">
+        <v>1</v>
+      </c>
+      <c r="O9" s="81">
         <f t="shared" si="1"/>
-        <v>1.46E-2</v>
-      </c>
-      <c r="Q9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="14">
         <v>347.47500000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="15">
+        <v>72</v>
+      </c>
+      <c r="C10" s="85">
         <f>4*4*236*7.5</f>
         <v>28320</v>
       </c>
@@ -1649,41 +1788,42 @@
       <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="66">
         <v>1.12E-2</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="83">
         <f t="shared" si="0"/>
         <v>1.12E-2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1.12E-2</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6">
+        <v>94</v>
+      </c>
+      <c r="L10" s="49">
+        <v>22013047</v>
+      </c>
+      <c r="M10" s="79">
+        <f>0.26</f>
+        <v>0.26</v>
+      </c>
+      <c r="N10" s="44">
+        <v>2</v>
+      </c>
+      <c r="O10" s="81">
         <f t="shared" si="1"/>
-        <v>1.12E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="15">
+        <v>58</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="85">
         <f>75000/Q15</f>
         <v>91.779045008443674</v>
       </c>
@@ -1694,44 +1834,45 @@
       <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="66">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="83">
         <f t="shared" si="0"/>
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="3">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6">
+        <v>95</v>
+      </c>
+      <c r="L11" s="49">
+        <v>22232041</v>
+      </c>
+      <c r="M11" s="79">
+        <f>0.45</f>
+        <v>0.45</v>
+      </c>
+      <c r="N11" s="44">
+        <v>2</v>
+      </c>
+      <c r="O11" s="81">
         <f t="shared" si="1"/>
-        <v>7.3000000000000001E-3</v>
+        <v>0.9</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="33">
+      <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="86">
         <f>490000/Q15</f>
         <v>599.62309405516532</v>
       </c>
@@ -1741,255 +1882,333 @@
       <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="66">
         <v>0.16028000000000001</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="83">
         <f t="shared" si="0"/>
         <v>0.64112000000000002</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.16028000000000001</v>
-      </c>
-      <c r="N12" s="8">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="O12" s="6">
+        <v>96</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="79">
+        <f>0.27</f>
+        <v>0.27</v>
+      </c>
+      <c r="N12" s="44">
+        <v>2</v>
+      </c>
+      <c r="O12" s="81">
         <f t="shared" si="1"/>
-        <v>0.64112000000000002</v>
-      </c>
-      <c r="Q12" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="Q12" s="14">
         <v>346.78300000000002</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31">
+      <c r="A13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="87">
         <f>SUM(C3:C12)</f>
         <v>29330.320372727783</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="66">
         <f>589/Q15</f>
         <v>0.72077143346631101</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="83">
         <f t="shared" si="0"/>
         <v>1.441542866932622</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="3">
-        <f>589/Q15</f>
-        <v>0.72077143346631101</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6">
+        <v>30</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="79">
+        <f>19.8</f>
+        <v>19.8</v>
+      </c>
+      <c r="N13" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="O13" s="81">
         <f>N13*M13</f>
-        <v>0.72077143346631101</v>
+        <v>3.9600000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="66">
         <f>89000/Q15</f>
         <v>108.91113341001983</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <f>3/750</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="83">
         <f t="shared" si="0"/>
         <v>0.43564453364007932</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="3">
-        <f>89000/Q15</f>
-        <v>108.91113341001983</v>
-      </c>
-      <c r="N14" s="17">
-        <f>3/750</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O14" s="6">
+        <v>98</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="80">
+        <f>(12167/40)/Q15</f>
+        <v>0.37222521353924476</v>
+      </c>
+      <c r="N14" s="44">
+        <v>1</v>
+      </c>
+      <c r="O14" s="81">
         <f t="shared" si="1"/>
-        <v>0.43564453364007932</v>
+        <v>0.37222521353924476</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="66">
         <f>27.55</f>
         <v>27.55</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>0.01</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="83">
         <f t="shared" si="0"/>
         <v>0.27550000000000002</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="3">
-        <f>27.55</f>
-        <v>27.55</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="O15" s="6">
+      <c r="K15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="80">
+        <f>1560/Q15</f>
+        <v>1.9090041361756285</v>
+      </c>
+      <c r="N15" s="44">
+        <v>4</v>
+      </c>
+      <c r="O15" s="81">
         <f t="shared" si="1"/>
-        <v>0.27550000000000002</v>
-      </c>
-      <c r="Q15" s="16">
+        <v>7.6360165447025139</v>
+      </c>
+      <c r="Q15" s="14">
         <v>817.18</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="E16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="66">
         <f>7.5</f>
         <v>7.5</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="17">
         <v>0.5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="83">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="K16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="79">
+        <f>2760/Q15</f>
+        <v>3.3774688563107271</v>
+      </c>
+      <c r="N16" s="44">
+        <v>1</v>
+      </c>
+      <c r="O16" s="81">
+        <f t="shared" si="1"/>
+        <v>3.3774688563107271</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="66">
         <f>7.5</f>
         <v>7.5</v>
       </c>
-      <c r="N16" s="20">
+      <c r="H17" s="6">
         <v>0.5</v>
       </c>
-      <c r="O16" s="6">
+      <c r="I17" s="83">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="79">
+        <f>(15444/20)/Q15</f>
+        <v>0.9449570474069362</v>
+      </c>
+      <c r="N17" s="44">
+        <v>2</v>
+      </c>
+      <c r="O17" s="81">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="3">
+        <v>1.8899140948138724</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="84">
+        <f>SUM(I3:I17)</f>
+        <v>12.943307400572701</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="79">
+        <f>(5251/10)/Q15</f>
+        <v>0.64257568711911706</v>
+      </c>
+      <c r="N18" s="44">
+        <v>2</v>
+      </c>
+      <c r="O18" s="81">
+        <f t="shared" si="1"/>
+        <v>1.2851513742382341</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="79">
+        <f>(1691/50)/Q15</f>
+        <v>4.1386230695807533E-2</v>
+      </c>
+      <c r="N19" s="44">
+        <v>2</v>
+      </c>
+      <c r="O19" s="81">
+        <f t="shared" si="1"/>
+        <v>8.2772461391615065E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="79">
+        <f>16200/Q15</f>
+        <v>19.824273721823836</v>
+      </c>
+      <c r="N20" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="O20" s="81">
+        <f t="shared" si="1"/>
+        <v>0.7929709488729535</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="K21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="M21" s="79">
         <f>7.5</f>
         <v>7.5</v>
       </c>
-      <c r="H17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="3">
-        <f>7.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="O17" s="6">
+      <c r="N21" s="44">
+        <v>2</v>
+      </c>
+      <c r="O21" s="81">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="19">
-        <f>SUM(I3:I17)</f>
-        <v>12.943307400572701</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="19">
-        <f>SUM(O3:O17)</f>
-        <v>12.22253596710639</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="K22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="82">
+        <f>SUM(O3:O21)</f>
+        <v>54.976747595389028</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="P25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2007,7 +2226,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D6" sqref="D6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2023,44 +2242,44 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+        <v>54</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>700</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="66">
+      <c r="D2" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="46">
         <v>1</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="38">
         <v>2</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="16">
+        <v>57</v>
+      </c>
+      <c r="B3" s="52">
         <v>50</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>85</v>
+      <c r="D3" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="E3" s="4">
         <f>INT(B2*0.75)</f>
@@ -2070,69 +2289,69 @@
         <f>$B$2</f>
         <v>700</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="40">
         <f>$B$2</f>
         <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="64">
+      <c r="D4" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="77">
         <f>E3*$B$3</f>
         <v>26250</v>
       </c>
-      <c r="F4" s="64">
-        <f t="shared" ref="F4:G4" si="0">F3*$B$3</f>
+      <c r="F4" s="77">
+        <f>F3*$B$3</f>
         <v>35000</v>
       </c>
-      <c r="G4" s="65">
-        <f t="shared" si="0"/>
+      <c r="G4" s="78">
+        <f>G3*$B$3</f>
         <v>35000</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+        <v>56</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="66">
+      <c r="D7" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="46">
         <v>1</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="38">
         <v>2</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="16">
+        <v>57</v>
+      </c>
+      <c r="B8" s="14">
         <v>80</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>85</v>
+      <c r="D8" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="E8" s="4">
         <f>INT(B7*0.75)</f>
@@ -2142,45 +2361,45 @@
         <f>$B$7</f>
         <v>14</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="40">
         <f>$B$7</f>
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="34"/>
-      <c r="D9" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="64">
+      <c r="B9" s="29"/>
+      <c r="D9" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="77">
         <f>E8*$B$8</f>
         <v>800</v>
       </c>
-      <c r="F9" s="64">
-        <f t="shared" ref="F9:G9" si="1">F8*$B$8</f>
+      <c r="F9" s="77">
+        <f t="shared" ref="F9" si="0">F8*$B$8</f>
         <v>1120</v>
       </c>
-      <c r="G9" s="65">
-        <f t="shared" si="1"/>
+      <c r="G9" s="78">
+        <f>G8*$B$8</f>
         <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="62"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="63"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
+      <c r="B13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="53"/>
+      <c r="B14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="53"/>
+      <c r="B15" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2193,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2210,72 +2429,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="23">
+      <c r="D1" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="20">
         <v>0</v>
       </c>
-      <c r="F1" s="36">
+      <c r="F1" s="31">
         <v>1</v>
       </c>
-      <c r="G1" s="23">
+      <c r="G1" s="20">
         <v>2</v>
       </c>
-      <c r="H1" s="35">
+      <c r="H1" s="30">
         <v>3</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="34">
-        <v>0.21</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="42">
+        <v>52</v>
+      </c>
+      <c r="B2" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="76">
         <f>-Costos!C13</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F2" s="43">
-        <v>0</v>
-      </c>
-      <c r="G2" s="42">
-        <v>0</v>
-      </c>
-      <c r="H2" s="54">
-        <v>0</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="F2" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="44">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+        <v>114</v>
+      </c>
+      <c r="B3" s="63">
+        <v>0.152</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="66">
         <f>Ingresos!E4+Ingresos!E9</f>
         <v>27050</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="65">
         <f>Ingresos!F4+Ingresos!F9</f>
         <v>36120</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="67">
         <f>Ingresos!G4+Ingresos!G9</f>
         <v>36120</v>
       </c>
@@ -2283,161 +2502,165 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="44">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>-Ingresos!E3*Costos!$I$18 - Ingresos!E8*Costos!$O$18</f>
-        <v>-6917.4617449717325</v>
-      </c>
-      <c r="G4" s="44">
-        <f>-Ingresos!F3*Costos!$I$18 - Ingresos!F8*Costos!$O$18</f>
-        <v>-9231.4306839403798</v>
-      </c>
-      <c r="H4" s="51">
-        <f>-Ingresos!G3*Costos!$I$18 - Ingresos!G8*Costos!$O$18</f>
-        <v>-9231.4306839403798</v>
+      <c r="D4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="66">
+        <f>-Ingresos!E3*Costos!$I$18 - Ingresos!F8*Costos!$O$22</f>
+        <v>-7564.9108516361148</v>
+      </c>
+      <c r="G4" s="65">
+        <f>-Ingresos!F3*Costos!$I$18 - Ingresos!F8*Costos!$O$22</f>
+        <v>-9829.989646736336</v>
+      </c>
+      <c r="H4" s="68">
+        <f>-Ingresos!G3*Costos!$I$18 - Ingresos!G8*Costos!$O$22</f>
+        <v>-9829.989646736336</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="41">
+        <v>76</v>
+      </c>
+      <c r="B5" s="35">
         <f>SUM(E9:H9)</f>
-        <v>10313.153424486163</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="44">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+        <v>8413.9828743875314</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="66">
         <f>F3+F4</f>
-        <v>20132.538255028267</v>
-      </c>
-      <c r="G5" s="44">
+        <v>19485.089148363884</v>
+      </c>
+      <c r="G5" s="65">
         <f t="shared" ref="G5:H5" si="0">G3+G4</f>
-        <v>26888.56931605962</v>
-      </c>
-      <c r="H5" s="51">
+        <v>26290.010353263664</v>
+      </c>
+      <c r="H5" s="67">
         <f t="shared" si="0"/>
-        <v>26888.56931605962</v>
+        <v>26290.010353263664</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="53">
+        <v>78</v>
+      </c>
+      <c r="B6" s="37">
         <f>IRR(E8:H8)</f>
-        <v>0.41542743559083228</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="44">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+        <v>0.30979936983247613</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="66">
         <f>-$B$2*F5</f>
-        <v>-4227.8330335559358</v>
-      </c>
-      <c r="G6" s="44">
+        <v>-5845.5267445091649</v>
+      </c>
+      <c r="G6" s="65">
         <f>-$B$2*G5</f>
-        <v>-5646.5995563725201</v>
-      </c>
-      <c r="H6" s="51">
+        <v>-7887.003105979099</v>
+      </c>
+      <c r="H6" s="67">
         <f>-$B$2*H5</f>
-        <v>-5646.5995563725201</v>
+        <v>-7887.003105979099</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="53">
+        <v>79</v>
+      </c>
+      <c r="B7" s="37">
         <f>MIRR(E8:H8,B3,B3)</f>
-        <v>0.29604808311628417</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0</v>
-      </c>
-      <c r="F7" s="46">
+        <v>0.25303734415696</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="70">
         <f>F5+F6</f>
-        <v>15904.70522147233</v>
-      </c>
-      <c r="G7" s="45">
-        <f t="shared" ref="G7:H7" si="1">G5+G6</f>
-        <v>21241.969759687101</v>
-      </c>
-      <c r="H7" s="55">
-        <f t="shared" si="1"/>
-        <v>21241.969759687101</v>
+        <v>13639.562403854719</v>
+      </c>
+      <c r="G7" s="69">
+        <f>G5+G6</f>
+        <v>18403.007247284564</v>
+      </c>
+      <c r="H7" s="71">
+        <f>H5+H6</f>
+        <v>18403.007247284564</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="50">
+      <c r="D8" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="72">
         <f>E2</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="66">
         <f>F7</f>
-        <v>15904.70522147233</v>
-      </c>
-      <c r="G8" s="50">
+        <v>13639.562403854719</v>
+      </c>
+      <c r="G8" s="72">
         <f>G7</f>
-        <v>21241.969759687101</v>
-      </c>
-      <c r="H8" s="51">
+        <v>18403.007247284564</v>
+      </c>
+      <c r="H8" s="67">
         <f>H7</f>
-        <v>21241.969759687101</v>
+        <v>18403.007247284564</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="52">
-        <f>E8/(1+$B$2)^E1</f>
+      <c r="D9" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="73">
+        <f>E8/(1+$B$3)^E1</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F9" s="48">
-        <f>F8/(1+$B$2)^F1</f>
-        <v>13144.384480555645</v>
-      </c>
-      <c r="G9" s="52">
-        <f>G8/(1+$B$2)^G1</f>
-        <v>14508.551164324228</v>
-      </c>
-      <c r="H9" s="49">
-        <f>H8/(1+$B$2)^H1</f>
-        <v>11990.538152334073</v>
+      <c r="F9" s="73">
+        <f>F8/(1+$B$3)^F1</f>
+        <v>11839.897920012778</v>
+      </c>
+      <c r="G9" s="73">
+        <f>G8/(1+$B$3)^G1</f>
+        <v>13867.042256887604</v>
+      </c>
+      <c r="H9" s="74">
+        <f>H8/(1+$B$3)^H1</f>
+        <v>12037.363070214935</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="50"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentación/Factibilidad económica/Factibilidad económica.xlsx
+++ b/Documentación/Factibilidad económica/Factibilidad económica.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Repos\Wet-DryPenguins\Documentación\Factibilidad económica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\Wet-DryPenguins\Documentación\Factibilidad económica\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16584B6-4C66-4521-90BA-BD633CE5051D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
     <sheet name="Ingresos" sheetId="3" r:id="rId2"/>
     <sheet name="Flujo de caja" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
   <si>
     <t>Placa desarrollo MSP</t>
   </si>
@@ -151,12 +163,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Costo</t>
-  </si>
-  <si>
-    <t>Precio Unitario</t>
-  </si>
-  <si>
     <t>Total desarrollo</t>
   </si>
   <si>
@@ -181,9 +187,6 @@
     <t>Costos Base</t>
   </si>
   <si>
-    <t>ESTADO DE RESULTADOS</t>
-  </si>
-  <si>
     <t>Ventas</t>
   </si>
   <si>
@@ -265,9 +268,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>TREMA</t>
-  </si>
-  <si>
     <t>VAN</t>
   </si>
   <si>
@@ -280,26 +280,143 @@
     <t>TIRM</t>
   </si>
   <si>
-    <t>Período</t>
-  </si>
-  <si>
     <t>Cantidad de ventas</t>
   </si>
   <si>
-    <t>Ingresos</t>
+    <t>ESP32 NodeMCU</t>
+  </si>
+  <si>
+    <t>Transistor MOS</t>
+  </si>
+  <si>
+    <t>BS170-ND</t>
+  </si>
+  <si>
+    <t>Capacitor Elec 10uF x 16V</t>
+  </si>
+  <si>
+    <t>ECA-1CM100I</t>
+  </si>
+  <si>
+    <t>RES220</t>
+  </si>
+  <si>
+    <t>CF14JT220R</t>
+  </si>
+  <si>
+    <t>RES10K</t>
+  </si>
+  <si>
+    <t>CF14JT10K</t>
+  </si>
+  <si>
+    <t>RES820K</t>
+  </si>
+  <si>
+    <t>CF14JT820K</t>
+  </si>
+  <si>
+    <t>LED RGB 5mm</t>
+  </si>
+  <si>
+    <t>HV-5RGB25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Terminal Hembra Molex 4 pines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Terminal Macho Molex 4 pines</t>
+  </si>
+  <si>
+    <t>Tira de 19 pines Hembra</t>
+  </si>
+  <si>
+    <t>PH1-20-UA</t>
+  </si>
+  <si>
+    <t>Cable plano 4 vías</t>
+  </si>
+  <si>
+    <t>Dupont 1.27mm</t>
+  </si>
+  <si>
+    <t>Resorte Ø4.2mm 22mm largo</t>
+  </si>
+  <si>
+    <t>Ø4.2mm 22mm</t>
+  </si>
+  <si>
+    <t>Cable USB C a USB A</t>
+  </si>
+  <si>
+    <t>USBC-USBA-1M</t>
+  </si>
+  <si>
+    <t>Tornillo M3 Allen X20mm</t>
+  </si>
+  <si>
+    <t>Allen-M3-20mm</t>
+  </si>
+  <si>
+    <t>Arandela 1/8''</t>
+  </si>
+  <si>
+    <t>Tuerca M3 Hexagonal</t>
+  </si>
+  <si>
+    <t>Tuerca M3 Hex</t>
+  </si>
+  <si>
+    <t>Carcaza impresa 3D</t>
+  </si>
+  <si>
+    <t>PLA-GST-WH-1.75MM</t>
+  </si>
+  <si>
+    <t>Total base</t>
+  </si>
+  <si>
+    <t>Mano de obra</t>
+  </si>
+  <si>
+    <t>2 hs/unidad</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Período (año)</t>
+  </si>
+  <si>
+    <t>Impuesto a las ganancias</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ingresos (USD)</t>
+  </si>
+  <si>
+    <t>Costo Unitario</t>
+  </si>
+  <si>
+    <t>Costo (USD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$USD]\ * #,##0.00_-;\-[$USD]\ * #,##0.00_-;_-[$USD]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$USD]\ * #,##0.00_-;\-[$USD]\ * #,##0.00_-;_-[$USD]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +466,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -363,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -614,17 +745,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -684,63 +804,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -796,36 +892,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -833,68 +948,88 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,22 +1048,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="4" builtinId="5"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1205,106 +1340,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="E1" s="68" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="E1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
-      <c r="K1" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73"/>
+      <c r="K1" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
       <c r="R1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="37" t="s">
+      <c r="M2" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="15">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="68">
         <f>43.49</f>
         <v>43.49</v>
       </c>
@@ -1312,47 +1448,48 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="49">
         <v>2.0541999999999998</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="66">
         <f t="shared" ref="I3:I17" si="0">H3*G3</f>
         <v>2.0541999999999998</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="3">
-        <v>2.0541999999999998</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="L3" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="62">
+        <f>13500/Q15</f>
+        <v>16.520228101519862</v>
+      </c>
+      <c r="N3" s="39">
         <v>1</v>
       </c>
-      <c r="O3" s="6">
-        <f t="shared" ref="O3:O17" si="1">N3*M3</f>
-        <v>2.0541999999999998</v>
-      </c>
-      <c r="Q3" s="16">
+      <c r="O3" s="64">
+        <f>N3*M3</f>
+        <v>16.520228101519862</v>
+      </c>
+      <c r="Q3" s="10">
         <v>255.81200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="68">
         <f>19.94</f>
         <v>19.940000000000001</v>
       </c>
@@ -1360,44 +1497,45 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="49">
         <v>0.13289999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="66">
         <f t="shared" si="0"/>
         <v>0.26579999999999998</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.13289999999999999</v>
-      </c>
-      <c r="N4" s="4">
+        <v>82</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="62">
+        <f>0.41</f>
+        <v>0.41</v>
+      </c>
+      <c r="N4" s="39">
         <v>2</v>
       </c>
-      <c r="O4" s="6">
-        <f t="shared" si="1"/>
-        <v>0.26579999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O4" s="64">
+        <f t="shared" ref="O4:O21" si="1">N4*M4</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="68">
         <f>1250/Q6</f>
         <v>4.566443580676272</v>
       </c>
@@ -1405,140 +1543,141 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="49">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="66">
         <f t="shared" si="0"/>
         <v>0.1668</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3">
-        <v>5.5599999999999997E-2</v>
-      </c>
-      <c r="N5" s="4">
-        <v>3</v>
-      </c>
-      <c r="O5" s="6">
+        <v>84</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="62">
+        <f>0.21</f>
+        <v>0.21</v>
+      </c>
+      <c r="N5" s="39">
+        <v>1</v>
+      </c>
+      <c r="O5" s="64">
         <f t="shared" si="1"/>
-        <v>0.1668</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+        <v>0.21</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="68">
         <f>13700/Q9</f>
         <v>39.42729692783653</v>
       </c>
-      <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="49">
         <v>6.3E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="66">
         <f t="shared" si="0"/>
         <v>6.3E-2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="3">
-        <v>6.3E-2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6">
+        <v>86</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="62">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="N6" s="39">
+        <v>3</v>
+      </c>
+      <c r="O6" s="64">
         <f t="shared" si="1"/>
-        <v>6.3E-2</v>
-      </c>
-      <c r="Q6" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="Q6" s="12">
         <v>273.73599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="15">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="68">
         <f>104.54</f>
         <v>104.54</v>
       </c>
-      <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="49">
         <v>1.95E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="66">
         <f t="shared" si="0"/>
         <v>1.95E-2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1.95E-2</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
+        <v>88</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="62">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="N7" s="39">
+        <v>2</v>
+      </c>
+      <c r="O7" s="64">
         <f t="shared" si="1"/>
-        <v>1.95E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="68">
         <f>19800/Q12</f>
         <v>57.096224440067708</v>
       </c>
@@ -1546,449 +1685,524 @@
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="49">
         <f>0.0471</f>
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="66">
         <f t="shared" si="0"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="3">
-        <f>0.0471</f>
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
+        <v>90</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="62">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="39">
+        <v>2</v>
+      </c>
+      <c r="O8" s="64">
         <f t="shared" si="1"/>
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="68">
         <f>17290/Q12</f>
         <v>49.858268715594477</v>
       </c>
-      <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="49">
         <f>0.0073</f>
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="66">
         <f t="shared" si="0"/>
         <v>1.46E-2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="3">
-        <f>0.0073</f>
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="N9" s="7">
-        <v>2</v>
-      </c>
-      <c r="O9" s="6">
+        <v>92</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="62">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="39">
+        <v>1</v>
+      </c>
+      <c r="O9" s="64">
         <f t="shared" si="1"/>
-        <v>1.46E-2</v>
-      </c>
-      <c r="Q9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10">
         <v>347.47500000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="15">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="68">
         <f>4*4*236*7.5</f>
         <v>28320</v>
       </c>
-      <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="49">
         <v>1.12E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="66">
         <f t="shared" si="0"/>
         <v>1.12E-2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1.12E-2</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6">
+        <v>94</v>
+      </c>
+      <c r="L10" s="42">
+        <v>22013047</v>
+      </c>
+      <c r="M10" s="62">
+        <f>0.26</f>
+        <v>0.26</v>
+      </c>
+      <c r="N10" s="39">
+        <v>2</v>
+      </c>
+      <c r="O10" s="64">
         <f t="shared" si="1"/>
-        <v>1.12E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="15">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="68">
         <f>75000/Q15</f>
         <v>91.779045008443674</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="49">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="66">
         <f t="shared" si="0"/>
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="3">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6">
+        <v>95</v>
+      </c>
+      <c r="L11" s="42">
+        <v>22232041</v>
+      </c>
+      <c r="M11" s="62">
+        <f>0.45</f>
+        <v>0.45</v>
+      </c>
+      <c r="N11" s="39">
+        <v>2</v>
+      </c>
+      <c r="O11" s="64">
         <f t="shared" si="1"/>
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="Q11" s="5" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="33">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="69">
         <f>490000/Q15</f>
         <v>599.62309405516532</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="49">
         <v>0.16028000000000001</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="66">
         <f t="shared" si="0"/>
         <v>0.64112000000000002</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.16028000000000001</v>
-      </c>
-      <c r="N12" s="8">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="O12" s="6">
+        <v>96</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="62">
+        <f>0.27</f>
+        <v>0.27</v>
+      </c>
+      <c r="N12" s="39">
+        <v>2</v>
+      </c>
+      <c r="O12" s="64">
         <f t="shared" si="1"/>
-        <v>0.64112000000000002</v>
-      </c>
-      <c r="Q12" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="Q12" s="10">
         <v>346.78300000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="70">
         <f>SUM(C3:C12)</f>
         <v>29330.320372727783</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="49">
         <f>589/Q15</f>
         <v>0.72077143346631101</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="66">
         <f t="shared" si="0"/>
         <v>1.441542866932622</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="3">
-        <f>589/Q15</f>
-        <v>0.72077143346631101</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6">
+        <v>30</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="62">
+        <f>19.8</f>
+        <v>19.8</v>
+      </c>
+      <c r="N13" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="O13" s="64">
         <f>N13*M13</f>
-        <v>0.72077143346631101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.9600000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="49">
         <f>89000/Q15</f>
         <v>108.91113341001983</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="11">
         <f>3/750</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="66">
         <f t="shared" si="0"/>
         <v>0.43564453364007932</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="3">
-        <f>89000/Q15</f>
-        <v>108.91113341001983</v>
-      </c>
-      <c r="N14" s="17">
-        <f>3/750</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O14" s="6">
+        <v>98</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="63">
+        <f>(12167/40)/Q15</f>
+        <v>0.37222521353924476</v>
+      </c>
+      <c r="N14" s="39">
+        <v>1</v>
+      </c>
+      <c r="O14" s="64">
         <f t="shared" si="1"/>
-        <v>0.43564453364007932</v>
-      </c>
-      <c r="Q14" s="5" t="s">
+        <v>0.37222521353924476</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E15" s="10" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="49">
         <f>27.55</f>
         <v>27.55</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>0.01</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="66">
         <f t="shared" si="0"/>
         <v>0.27550000000000002</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="3">
-        <f>27.55</f>
-        <v>27.55</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="O15" s="6">
+      <c r="K15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="63">
+        <f>1560/Q15</f>
+        <v>1.9090041361756285</v>
+      </c>
+      <c r="N15" s="39">
+        <v>4</v>
+      </c>
+      <c r="O15" s="64">
         <f t="shared" si="1"/>
-        <v>0.27550000000000002</v>
-      </c>
-      <c r="Q15" s="16">
+        <v>7.6360165447025139</v>
+      </c>
+      <c r="Q15" s="10">
         <v>817.18</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="49">
         <f>7.5</f>
         <v>7.5</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="13">
         <v>0.5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="66">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="K16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="62">
+        <f>2760/Q15</f>
+        <v>3.3774688563107271</v>
+      </c>
+      <c r="N16" s="39">
+        <v>1</v>
+      </c>
+      <c r="O16" s="64">
+        <f t="shared" si="1"/>
+        <v>3.3774688563107271</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="49">
         <f>7.5</f>
         <v>7.5</v>
       </c>
-      <c r="N16" s="20">
+      <c r="H17">
         <v>0.5</v>
       </c>
-      <c r="O16" s="6">
+      <c r="I17" s="66">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="62">
+        <f>(15444/20)/Q15</f>
+        <v>0.9449570474069362</v>
+      </c>
+      <c r="N17" s="39">
+        <v>2</v>
+      </c>
+      <c r="O17" s="64">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="3">
+        <v>1.8899140948138724</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="67">
+        <f>SUM(I3:I17)</f>
+        <v>12.943307400572701</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="62">
+        <f>(5251/10)/Q15</f>
+        <v>0.64257568711911706</v>
+      </c>
+      <c r="N18" s="39">
+        <v>2</v>
+      </c>
+      <c r="O18" s="64">
+        <f t="shared" si="1"/>
+        <v>1.2851513742382341</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="62">
+        <f>(1691/50)/Q15</f>
+        <v>4.1386230695807533E-2</v>
+      </c>
+      <c r="N19" s="39">
+        <v>2</v>
+      </c>
+      <c r="O19" s="64">
+        <f t="shared" si="1"/>
+        <v>8.2772461391615065E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="62">
+        <f>16200/Q15</f>
+        <v>19.824273721823836</v>
+      </c>
+      <c r="N20" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="O20" s="64">
+        <f t="shared" si="1"/>
+        <v>0.7929709488729535</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="M21" s="62">
         <f>7.5</f>
         <v>7.5</v>
       </c>
-      <c r="H17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="3">
-        <f>7.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="O17" s="6">
+      <c r="N21" s="39">
+        <v>2</v>
+      </c>
+      <c r="O21" s="64">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="19">
-        <f>SUM(I3:I17)</f>
-        <v>12.943307400572701</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="19">
-        <f>SUM(O3:O17)</f>
-        <v>12.22253596710639</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="65">
+        <f>SUM(O3:O21)</f>
+        <v>54.976747595389028</v>
       </c>
     </row>
   </sheetData>
@@ -2003,184 +2217,183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D6" sqref="D6:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>700</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="66">
+      <c r="D2" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="33">
         <v>1</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="33">
         <v>2</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="40">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="16">
+        <v>57</v>
+      </c>
+      <c r="B3" s="44">
         <v>50</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3">
         <f>INT(B2*0.75)</f>
         <v>525</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <f>$B$2</f>
         <v>700</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="35">
         <f>$B$2</f>
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="64">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="60">
         <f>E3*$B$3</f>
         <v>26250</v>
       </c>
-      <c r="F4" s="64">
-        <f t="shared" ref="F4:G4" si="0">F3*$B$3</f>
+      <c r="F4" s="60">
+        <f>F3*$B$3</f>
         <v>35000</v>
       </c>
-      <c r="G4" s="65">
-        <f t="shared" si="0"/>
+      <c r="G4" s="61">
+        <f>G3*$B$3</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="66">
+      <c r="D7" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="33">
         <v>1</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="33">
         <v>2</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="40">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="16">
+        <v>57</v>
+      </c>
+      <c r="B8" s="10">
         <v>80</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8">
         <f>INT(B7*0.75)</f>
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <f>$B$7</f>
         <v>14</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="35">
         <f>$B$7</f>
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="34"/>
-      <c r="D9" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="64">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="D9" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="60">
         <f>E8*$B$8</f>
         <v>800</v>
       </c>
-      <c r="F9" s="64">
-        <f t="shared" ref="F9:G9" si="1">F8*$B$8</f>
+      <c r="F9" s="60">
+        <f t="shared" ref="F9" si="0">F8*$B$8</f>
         <v>1120</v>
       </c>
-      <c r="G9" s="65">
-        <f t="shared" si="1"/>
+      <c r="G9" s="61">
+        <f>G8*$B$8</f>
         <v>1120</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="62"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="63"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="53"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="53"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="39"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2192,252 +2405,253 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D1" s="22" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="16">
+        <v>0</v>
+      </c>
+      <c r="F1" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1" s="16">
+        <v>2</v>
+      </c>
+      <c r="H1" s="25">
+        <v>3</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="23">
-        <v>0</v>
-      </c>
-      <c r="F1" s="36">
-        <v>1</v>
-      </c>
-      <c r="G1" s="23">
-        <v>2</v>
-      </c>
-      <c r="H1" s="35">
-        <v>3</v>
-      </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="34">
-        <v>0.21</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="42">
+      <c r="E2" s="59">
         <f>-Costos!C13</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F2" s="43">
-        <v>0</v>
-      </c>
-      <c r="G2" s="42">
-        <v>0</v>
-      </c>
-      <c r="H2" s="54">
-        <v>0</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F2" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="44">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+        <v>114</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.152</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="49">
         <f>Ingresos!E4+Ingresos!E9</f>
         <v>27050</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="48">
         <f>Ingresos!F4+Ingresos!F9</f>
         <v>36120</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="50">
         <f>Ingresos!G4+Ingresos!G9</f>
         <v>36120</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="44">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>-Ingresos!E3*Costos!$I$18 - Ingresos!E8*Costos!$O$18</f>
-        <v>-6917.4617449717325</v>
-      </c>
-      <c r="G4" s="44">
-        <f>-Ingresos!F3*Costos!$I$18 - Ingresos!F8*Costos!$O$18</f>
-        <v>-9231.4306839403798</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="49">
+        <f>-Ingresos!E3*Costos!$I$18 - Ingresos!F8*Costos!$O$22</f>
+        <v>-7564.9108516361148</v>
+      </c>
+      <c r="G4" s="48">
+        <f>-Ingresos!F3*Costos!$I$18 - Ingresos!F8*Costos!$O$22</f>
+        <v>-9829.989646736336</v>
       </c>
       <c r="H4" s="51">
-        <f>-Ingresos!G3*Costos!$I$18 - Ingresos!G8*Costos!$O$18</f>
-        <v>-9231.4306839403798</v>
+        <f>-Ingresos!G3*Costos!$I$18 - Ingresos!G8*Costos!$O$22</f>
+        <v>-9829.989646736336</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="41">
+        <v>76</v>
+      </c>
+      <c r="B5" s="30">
         <f>SUM(E9:H9)</f>
-        <v>10313.153424486163</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="44">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+        <v>8413.9828743875314</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="49">
         <f>F3+F4</f>
-        <v>20132.538255028267</v>
-      </c>
-      <c r="G5" s="44">
+        <v>19485.089148363884</v>
+      </c>
+      <c r="G5" s="48">
         <f t="shared" ref="G5:H5" si="0">G3+G4</f>
-        <v>26888.56931605962</v>
-      </c>
-      <c r="H5" s="51">
+        <v>26290.010353263664</v>
+      </c>
+      <c r="H5" s="50">
         <f t="shared" si="0"/>
-        <v>26888.56931605962</v>
+        <v>26290.010353263664</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="53">
+        <v>78</v>
+      </c>
+      <c r="B6" s="32">
         <f>IRR(E8:H8)</f>
-        <v>0.41542743559083228</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="44">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+        <v>0.30979936983247613</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="49">
         <f>-$B$2*F5</f>
-        <v>-4227.8330335559358</v>
-      </c>
-      <c r="G6" s="44">
+        <v>-5845.5267445091649</v>
+      </c>
+      <c r="G6" s="48">
         <f>-$B$2*G5</f>
-        <v>-5646.5995563725201</v>
-      </c>
-      <c r="H6" s="51">
+        <v>-7887.003105979099</v>
+      </c>
+      <c r="H6" s="50">
         <f>-$B$2*H5</f>
-        <v>-5646.5995563725201</v>
+        <v>-7887.003105979099</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="53">
+        <v>79</v>
+      </c>
+      <c r="B7" s="32">
         <f>MIRR(E8:H8,B3,B3)</f>
-        <v>0.29604808311628417</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0</v>
-      </c>
-      <c r="F7" s="46">
+        <v>0.25303734415696</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="53">
         <f>F5+F6</f>
-        <v>15904.70522147233</v>
-      </c>
-      <c r="G7" s="45">
-        <f t="shared" ref="G7:H7" si="1">G5+G6</f>
-        <v>21241.969759687101</v>
-      </c>
-      <c r="H7" s="55">
-        <f t="shared" si="1"/>
-        <v>21241.969759687101</v>
+        <v>13639.562403854719</v>
+      </c>
+      <c r="G7" s="52">
+        <f>G5+G6</f>
+        <v>18403.007247284564</v>
+      </c>
+      <c r="H7" s="54">
+        <f>H5+H6</f>
+        <v>18403.007247284564</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="50">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="55">
         <f>E2</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="49">
         <f>F7</f>
-        <v>15904.70522147233</v>
-      </c>
-      <c r="G8" s="50">
+        <v>13639.562403854719</v>
+      </c>
+      <c r="G8" s="55">
         <f>G7</f>
-        <v>21241.969759687101</v>
-      </c>
-      <c r="H8" s="51">
+        <v>18403.007247284564</v>
+      </c>
+      <c r="H8" s="50">
         <f>H7</f>
-        <v>21241.969759687101</v>
+        <v>18403.007247284564</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="52">
-        <f>E8/(1+$B$2)^E1</f>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="56">
+        <f>E8/(1+$B$3)^E1</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F9" s="48">
-        <f>F8/(1+$B$2)^F1</f>
-        <v>13144.384480555645</v>
-      </c>
-      <c r="G9" s="52">
-        <f>G8/(1+$B$2)^G1</f>
-        <v>14508.551164324228</v>
-      </c>
-      <c r="H9" s="49">
-        <f>H8/(1+$B$2)^H1</f>
-        <v>11990.538152334073</v>
+      <c r="F9" s="56">
+        <f>F8/(1+$B$3)^F1</f>
+        <v>11839.897920012778</v>
+      </c>
+      <c r="G9" s="56">
+        <f>G8/(1+$B$3)^G1</f>
+        <v>13867.042256887604</v>
+      </c>
+      <c r="H9" s="57">
+        <f>H8/(1+$B$3)^H1</f>
+        <v>12037.363070214935</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentación/Factibilidad económica/Factibilidad económica.xlsx
+++ b/Documentación/Factibilidad económica/Factibilidad económica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
@@ -397,12 +397,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$USD]\ * #,##0.00_-;\-[$USD]\ * #,##0.00_-;_-[$USD]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -914,7 +915,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -988,33 +989,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1050,11 +1024,39 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -1341,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,10 +1353,10 @@
     <col min="2" max="2" width="40.109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
     <col min="11" max="11" width="27.5546875" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
@@ -1363,25 +1365,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="E1" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="K1" s="53" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+      <c r="K1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="55"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="79"/>
       <c r="R1" t="s">
         <v>75</v>
       </c>
@@ -1438,7 +1440,7 @@
       <c r="B3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="74">
         <f>43.49</f>
         <v>43.49</v>
       </c>
@@ -1449,13 +1451,13 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="86">
         <v>2.0541999999999998</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="87">
         <f t="shared" ref="I3:I17" si="0">H3*G3</f>
         <v>2.0541999999999998</v>
       </c>
@@ -1465,14 +1467,14 @@
       <c r="L3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="79">
+      <c r="M3" s="70">
         <f>13500/Q15</f>
         <v>16.520228101519862</v>
       </c>
       <c r="N3" s="44">
         <v>1</v>
       </c>
-      <c r="O3" s="81">
+      <c r="O3" s="72">
         <f>N3*M3</f>
         <v>16.520228101519862</v>
       </c>
@@ -1487,7 +1489,7 @@
       <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="74">
         <f>19.94</f>
         <v>19.940000000000001</v>
       </c>
@@ -1498,13 +1500,13 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="86">
         <v>0.13289999999999999</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="87">
         <f t="shared" si="0"/>
         <v>0.26579999999999998</v>
       </c>
@@ -1514,14 +1516,14 @@
       <c r="L4" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="70">
         <f>0.41</f>
         <v>0.41</v>
       </c>
       <c r="N4" s="44">
         <v>2</v>
       </c>
-      <c r="O4" s="81">
+      <c r="O4" s="72">
         <f t="shared" ref="O4:O21" si="1">N4*M4</f>
         <v>0.82</v>
       </c>
@@ -1533,7 +1535,7 @@
       <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="74">
         <f>1250/Q6</f>
         <v>4.566443580676272</v>
       </c>
@@ -1544,13 +1546,13 @@
       <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="86">
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="87">
         <f t="shared" si="0"/>
         <v>0.1668</v>
       </c>
@@ -1560,14 +1562,14 @@
       <c r="L5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="70">
         <f>0.21</f>
         <v>0.21</v>
       </c>
       <c r="N5" s="44">
         <v>1</v>
       </c>
-      <c r="O5" s="81">
+      <c r="O5" s="72">
         <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
@@ -1582,7 +1584,7 @@
       <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="74">
         <f>13700/Q9</f>
         <v>39.42729692783653</v>
       </c>
@@ -1593,13 +1595,13 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="86">
         <v>6.3E-2</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="87">
         <f t="shared" si="0"/>
         <v>6.3E-2</v>
       </c>
@@ -1609,14 +1611,14 @@
       <c r="L6" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="79">
+      <c r="M6" s="70">
         <f>0.01</f>
         <v>0.01</v>
       </c>
       <c r="N6" s="44">
         <v>3</v>
       </c>
-      <c r="O6" s="81">
+      <c r="O6" s="72">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
@@ -1631,7 +1633,7 @@
       <c r="B7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="74">
         <f>104.54</f>
         <v>104.54</v>
       </c>
@@ -1642,13 +1644,13 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="86">
         <v>1.95E-2</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="87">
         <f t="shared" si="0"/>
         <v>1.95E-2</v>
       </c>
@@ -1658,14 +1660,14 @@
       <c r="L7" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="79">
+      <c r="M7" s="70">
         <f>0.01</f>
         <v>0.01</v>
       </c>
       <c r="N7" s="44">
         <v>2</v>
       </c>
-      <c r="O7" s="81">
+      <c r="O7" s="72">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
@@ -1677,7 +1679,7 @@
       <c r="B8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="74">
         <f>19800/Q12</f>
         <v>57.096224440067708</v>
       </c>
@@ -1688,14 +1690,14 @@
       <c r="F8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="86">
         <f>0.0471</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="87">
         <f t="shared" si="0"/>
         <v>4.7100000000000003E-2</v>
       </c>
@@ -1705,14 +1707,14 @@
       <c r="L8" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="79">
+      <c r="M8" s="70">
         <f>0.01</f>
         <v>0.01</v>
       </c>
       <c r="N8" s="44">
         <v>2</v>
       </c>
-      <c r="O8" s="81">
+      <c r="O8" s="72">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
@@ -1727,7 +1729,7 @@
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="74">
         <f>17290/Q12</f>
         <v>49.858268715594477</v>
       </c>
@@ -1738,14 +1740,14 @@
       <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="86">
         <f>0.0073</f>
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="H9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="87">
         <f t="shared" si="0"/>
         <v>1.46E-2</v>
       </c>
@@ -1755,14 +1757,14 @@
       <c r="L9" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="79">
+      <c r="M9" s="70">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="N9" s="44">
         <v>1</v>
       </c>
-      <c r="O9" s="81">
+      <c r="O9" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1777,7 +1779,7 @@
       <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="74">
         <f>4*4*236*7.5</f>
         <v>28320</v>
       </c>
@@ -1788,13 +1790,13 @@
       <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="86">
         <v>1.12E-2</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="87">
         <f t="shared" si="0"/>
         <v>1.12E-2</v>
       </c>
@@ -1804,14 +1806,14 @@
       <c r="L10" s="49">
         <v>22013047</v>
       </c>
-      <c r="M10" s="79">
+      <c r="M10" s="70">
         <f>0.26</f>
         <v>0.26</v>
       </c>
       <c r="N10" s="44">
         <v>2</v>
       </c>
-      <c r="O10" s="81">
+      <c r="O10" s="72">
         <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
@@ -1823,7 +1825,7 @@
       <c r="B11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="74">
         <f>75000/Q15</f>
         <v>91.779045008443674</v>
       </c>
@@ -1834,13 +1836,13 @@
       <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="86">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="87">
         <f t="shared" si="0"/>
         <v>7.3000000000000001E-3</v>
       </c>
@@ -1850,14 +1852,14 @@
       <c r="L11" s="49">
         <v>22232041</v>
       </c>
-      <c r="M11" s="79">
+      <c r="M11" s="70">
         <f>0.45</f>
         <v>0.45</v>
       </c>
       <c r="N11" s="44">
         <v>2</v>
       </c>
-      <c r="O11" s="81">
+      <c r="O11" s="72">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -1872,7 +1874,7 @@
       <c r="B12" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="75">
         <f>490000/Q15</f>
         <v>599.62309405516532</v>
       </c>
@@ -1882,14 +1884,14 @@
       <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="86">
         <v>0.16028000000000001</v>
       </c>
       <c r="H12" s="7">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="87">
         <f t="shared" si="0"/>
         <v>0.64112000000000002</v>
       </c>
@@ -1899,14 +1901,14 @@
       <c r="L12" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="79">
+      <c r="M12" s="70">
         <f>0.27</f>
         <v>0.27</v>
       </c>
       <c r="N12" s="44">
         <v>2</v>
       </c>
-      <c r="O12" s="81">
+      <c r="O12" s="72">
         <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
@@ -1919,7 +1921,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="87">
+      <c r="C13" s="76">
         <f>SUM(C3:C12)</f>
         <v>29330.320372727783</v>
       </c>
@@ -1929,14 +1931,14 @@
       <c r="F13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="86">
         <f>589/Q15</f>
         <v>0.72077143346631101</v>
       </c>
       <c r="H13" s="6">
         <v>2</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="87">
         <f t="shared" si="0"/>
         <v>1.441542866932622</v>
       </c>
@@ -1946,14 +1948,14 @@
       <c r="L13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="79">
+      <c r="M13" s="70">
         <f>19.8</f>
         <v>19.8</v>
       </c>
       <c r="N13" s="48">
         <v>0.2</v>
       </c>
-      <c r="O13" s="81">
+      <c r="O13" s="72">
         <f>N13*M13</f>
         <v>3.9600000000000004</v>
       </c>
@@ -1965,7 +1967,7 @@
       <c r="F14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="86">
         <f>89000/Q15</f>
         <v>108.91113341001983</v>
       </c>
@@ -1973,7 +1975,7 @@
         <f>3/750</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="87">
         <f t="shared" si="0"/>
         <v>0.43564453364007932</v>
       </c>
@@ -1983,14 +1985,14 @@
       <c r="L14" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="M14" s="80">
+      <c r="M14" s="71">
         <f>(12167/40)/Q15</f>
         <v>0.37222521353924476</v>
       </c>
       <c r="N14" s="44">
         <v>1</v>
       </c>
-      <c r="O14" s="81">
+      <c r="O14" s="72">
         <f t="shared" si="1"/>
         <v>0.37222521353924476</v>
       </c>
@@ -2005,14 +2007,14 @@
       <c r="F15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="86">
         <f>27.55</f>
         <v>27.55</v>
       </c>
       <c r="H15" s="8">
         <v>0.01</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="87">
         <f t="shared" si="0"/>
         <v>0.27550000000000002</v>
       </c>
@@ -2022,14 +2024,14 @@
       <c r="L15" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="M15" s="80">
+      <c r="M15" s="71">
         <f>1560/Q15</f>
         <v>1.9090041361756285</v>
       </c>
       <c r="N15" s="44">
         <v>4</v>
       </c>
-      <c r="O15" s="81">
+      <c r="O15" s="72">
         <f t="shared" si="1"/>
         <v>7.6360165447025139</v>
       </c>
@@ -2044,14 +2046,14 @@
       <c r="F16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="86">
         <f>7.5</f>
         <v>7.5</v>
       </c>
       <c r="H16" s="17">
         <v>0.5</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="87">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
@@ -2061,14 +2063,14 @@
       <c r="L16" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="79">
+      <c r="M16" s="70">
         <f>2760/Q15</f>
         <v>3.3774688563107271</v>
       </c>
       <c r="N16" s="44">
         <v>1</v>
       </c>
-      <c r="O16" s="81">
+      <c r="O16" s="72">
         <f t="shared" si="1"/>
         <v>3.3774688563107271</v>
       </c>
@@ -2080,14 +2082,14 @@
       <c r="F17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="86">
         <f>7.5</f>
         <v>7.5</v>
       </c>
       <c r="H17" s="6">
         <v>0.5</v>
       </c>
-      <c r="I17" s="83">
+      <c r="I17" s="87">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
@@ -2097,14 +2099,14 @@
       <c r="L17" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="79">
+      <c r="M17" s="70">
         <f>(15444/20)/Q15</f>
         <v>0.9449570474069362</v>
       </c>
       <c r="N17" s="44">
         <v>2</v>
       </c>
-      <c r="O17" s="81">
+      <c r="O17" s="72">
         <f t="shared" si="1"/>
         <v>1.8899140948138724</v>
       </c>
@@ -2116,7 +2118,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="84">
+      <c r="I18" s="88">
         <f>SUM(I3:I17)</f>
         <v>12.943307400572701</v>
       </c>
@@ -2126,14 +2128,14 @@
       <c r="L18" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="M18" s="79">
+      <c r="M18" s="70">
         <f>(5251/10)/Q15</f>
         <v>0.64257568711911706</v>
       </c>
       <c r="N18" s="44">
         <v>2</v>
       </c>
-      <c r="O18" s="81">
+      <c r="O18" s="72">
         <f t="shared" si="1"/>
         <v>1.2851513742382341</v>
       </c>
@@ -2145,14 +2147,14 @@
       <c r="L19" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="M19" s="79">
+      <c r="M19" s="70">
         <f>(1691/50)/Q15</f>
         <v>4.1386230695807533E-2</v>
       </c>
       <c r="N19" s="44">
         <v>2</v>
       </c>
-      <c r="O19" s="81">
+      <c r="O19" s="72">
         <f t="shared" si="1"/>
         <v>8.2772461391615065E-2</v>
       </c>
@@ -2164,14 +2166,14 @@
       <c r="L20" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="M20" s="79">
+      <c r="M20" s="70">
         <f>16200/Q15</f>
         <v>19.824273721823836</v>
       </c>
       <c r="N20" s="44">
         <v>0.04</v>
       </c>
-      <c r="O20" s="81">
+      <c r="O20" s="72">
         <f t="shared" si="1"/>
         <v>0.7929709488729535</v>
       </c>
@@ -2183,14 +2185,14 @@
       <c r="L21" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="M21" s="79">
+      <c r="M21" s="70">
         <f>7.5</f>
         <v>7.5</v>
       </c>
       <c r="N21" s="44">
         <v>2</v>
       </c>
-      <c r="O21" s="81">
+      <c r="O21" s="72">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2202,7 +2204,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="82">
+      <c r="O22" s="73">
         <f>SUM(O3:O21)</f>
         <v>54.976747595389028</v>
       </c>
@@ -2244,12 +2246,12 @@
       <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2298,15 +2300,15 @@
       <c r="D4" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="68">
         <f>E3*$B$3</f>
         <v>26250</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="68">
         <f>F3*$B$3</f>
         <v>35000</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="69">
         <f>G3*$B$3</f>
         <v>35000</v>
       </c>
@@ -2316,12 +2318,12 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2371,15 +2373,15 @@
       <c r="D9" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="68">
         <f>E8*$B$8</f>
         <v>800</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="68">
         <f t="shared" ref="F9" si="0">F8*$B$8</f>
         <v>1120</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="69">
         <f>G8*$B$8</f>
         <v>1120</v>
       </c>
@@ -2414,7 +2416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2457,17 +2459,17 @@
       <c r="D2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="76">
+      <c r="E2" s="67">
         <f>-Costos!C13</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="55" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="39"/>
@@ -2477,24 +2479,24 @@
       <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="54">
         <v>0.152</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="57">
         <f>Ingresos!E4+Ingresos!E9</f>
         <v>27050</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="56">
         <f>Ingresos!F4+Ingresos!F9</f>
         <v>36120</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="58">
         <f>Ingresos!G4+Ingresos!G9</f>
         <v>36120</v>
       </c>
@@ -2505,18 +2507,18 @@
       <c r="D4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="57">
         <f>-Ingresos!E3*Costos!$I$18 - Ingresos!F8*Costos!$O$22</f>
         <v>-7564.9108516361148</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="56">
         <f>-Ingresos!F3*Costos!$I$18 - Ingresos!F8*Costos!$O$22</f>
         <v>-9829.989646736336</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="59">
         <f>-Ingresos!G3*Costos!$I$18 - Ingresos!G8*Costos!$O$22</f>
         <v>-9829.989646736336</v>
       </c>
@@ -2534,18 +2536,18 @@
       <c r="D5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="57">
         <f>F3+F4</f>
         <v>19485.089148363884</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="56">
         <f t="shared" ref="G5:H5" si="0">G3+G4</f>
         <v>26290.010353263664</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="58">
         <f t="shared" si="0"/>
         <v>26290.010353263664</v>
       </c>
@@ -2563,18 +2565,18 @@
       <c r="D6" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="57">
         <f>-$B$2*F5</f>
         <v>-5845.5267445091649</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="56">
         <f>-$B$2*G5</f>
         <v>-7887.003105979099</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="58">
         <f>-$B$2*H5</f>
         <v>-7887.003105979099</v>
       </c>
@@ -2592,18 +2594,18 @@
       <c r="D7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="61">
         <f>F5+F6</f>
         <v>13639.562403854719</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="60">
         <f>G5+G6</f>
         <v>18403.007247284564</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="62">
         <f>H5+H6</f>
         <v>18403.007247284564</v>
       </c>
@@ -2611,22 +2613,22 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="63">
         <f>E2</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="57">
         <f>F7</f>
         <v>13639.562403854719</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="63">
         <f>G7</f>
         <v>18403.007247284564</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="58">
         <f>H7</f>
         <v>18403.007247284564</v>
       </c>
@@ -2637,19 +2639,19 @@
       <c r="D9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="64">
         <f>E8/(1+$B$3)^E1</f>
         <v>-29330.320372727783</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="64">
         <f>F8/(1+$B$3)^F1</f>
         <v>11839.897920012778</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="64">
         <f>G8/(1+$B$3)^G1</f>
         <v>13867.042256887604</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="65">
         <f>H8/(1+$B$3)^H1</f>
         <v>12037.363070214935</v>
       </c>
